--- a/项目排期week1-4.xlsx
+++ b/项目排期week1-4.xlsx
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="33">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="62" uniqueCount="40">
   <si>
     <t>4 周项目日程表</t>
   </si>
@@ -76,10 +76,6 @@
     <phoneticPr fontId="20" type="noConversion"/>
   </si>
   <si>
-    <t>需求评审</t>
-    <phoneticPr fontId="20" type="noConversion"/>
-  </si>
-  <si>
     <t>后端技术选型</t>
     <phoneticPr fontId="20" type="noConversion"/>
   </si>
@@ -92,10 +88,6 @@
     <phoneticPr fontId="20" type="noConversion"/>
   </si>
   <si>
-    <t>概要设计评审</t>
-    <phoneticPr fontId="20" type="noConversion"/>
-  </si>
-  <si>
     <t>后端概要设计</t>
     <phoneticPr fontId="20" type="noConversion"/>
   </si>
@@ -104,10 +96,6 @@
     <phoneticPr fontId="20" type="noConversion"/>
   </si>
   <si>
-    <t>概要设计评审</t>
-    <phoneticPr fontId="20" type="noConversion"/>
-  </si>
-  <si>
     <t>后端详细设计</t>
     <phoneticPr fontId="20" type="noConversion"/>
   </si>
@@ -149,6 +137,46 @@
   </si>
   <si>
     <t>进行中</t>
+    <phoneticPr fontId="20" type="noConversion"/>
+  </si>
+  <si>
+    <t>实际进度</t>
+    <phoneticPr fontId="20" type="noConversion"/>
+  </si>
+  <si>
+    <t>交互场景详细设计</t>
+    <phoneticPr fontId="20" type="noConversion"/>
+  </si>
+  <si>
+    <t>评审</t>
+    <phoneticPr fontId="20" type="noConversion"/>
+  </si>
+  <si>
+    <t>评审</t>
+    <phoneticPr fontId="20" type="noConversion"/>
+  </si>
+  <si>
+    <t>评审</t>
+    <phoneticPr fontId="20" type="noConversion"/>
+  </si>
+  <si>
+    <t>评审</t>
+    <phoneticPr fontId="20" type="noConversion"/>
+  </si>
+  <si>
+    <t>评审</t>
+    <phoneticPr fontId="20" type="noConversion"/>
+  </si>
+  <si>
+    <t>后端同步</t>
+    <phoneticPr fontId="20" type="noConversion"/>
+  </si>
+  <si>
+    <t>详细设计归入开发流程</t>
+    <phoneticPr fontId="20" type="noConversion"/>
+  </si>
+  <si>
+    <t>备注：</t>
     <phoneticPr fontId="20" type="noConversion"/>
   </si>
 </sst>
@@ -801,6 +829,24 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="2" xfId="16" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="15" borderId="2" xfId="29" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="27" borderId="2" xfId="41" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="23" borderId="2" xfId="37" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="23" borderId="0" xfId="37" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="5" xfId="10" applyFont="1">
+      <alignment horizontal="left" wrapText="1" indent="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" indent="1"/>
     </xf>
@@ -818,24 +864,6 @@
     </xf>
     <xf numFmtId="0" fontId="9" fillId="5" borderId="0" xfId="3" applyAlignment="1">
       <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="7" borderId="2" xfId="16" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="15" borderId="2" xfId="29" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="27" borderId="2" xfId="41" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="23" borderId="2" xfId="37" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="23" borderId="0" xfId="37" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="5" xfId="10" applyFont="1">
-      <alignment horizontal="left" wrapText="1" indent="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="52">
@@ -1129,8 +1157,8 @@
   </sheetPr>
   <dimension ref="B1:AF26"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="E1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="AE10" sqref="AE10"/>
+    <sheetView showGridLines="0" tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="O17" sqref="O17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="30" customHeight="1" x14ac:dyDescent="0.35"/>
@@ -1144,91 +1172,91 @@
   </cols>
   <sheetData>
     <row r="1" spans="2:32" ht="48.75" customHeight="1" x14ac:dyDescent="0.9">
-      <c r="B1" s="24" t="s">
+      <c r="B1" s="30" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="24"/>
-      <c r="D1" s="24"/>
-      <c r="E1" s="24"/>
-      <c r="F1" s="24"/>
-      <c r="G1" s="24"/>
-      <c r="H1" s="24"/>
-      <c r="I1" s="24"/>
-      <c r="J1" s="24"/>
-      <c r="K1" s="24"/>
-      <c r="L1" s="24"/>
-      <c r="M1" s="24"/>
-      <c r="N1" s="24"/>
-      <c r="O1" s="24"/>
-      <c r="P1" s="24"/>
-      <c r="Q1" s="24"/>
-      <c r="R1" s="24"/>
-      <c r="S1" s="24"/>
-      <c r="T1" s="24"/>
-      <c r="U1" s="24"/>
-      <c r="V1" s="24"/>
-      <c r="W1" s="24"/>
-      <c r="X1" s="24"/>
-      <c r="Y1" s="24"/>
-      <c r="Z1" s="24"/>
-      <c r="AA1" s="24"/>
-      <c r="AB1" s="24"/>
-      <c r="AC1" s="24"/>
-      <c r="AD1" s="24"/>
-      <c r="AE1" s="24"/>
+      <c r="C1" s="30"/>
+      <c r="D1" s="30"/>
+      <c r="E1" s="30"/>
+      <c r="F1" s="30"/>
+      <c r="G1" s="30"/>
+      <c r="H1" s="30"/>
+      <c r="I1" s="30"/>
+      <c r="J1" s="30"/>
+      <c r="K1" s="30"/>
+      <c r="L1" s="30"/>
+      <c r="M1" s="30"/>
+      <c r="N1" s="30"/>
+      <c r="O1" s="30"/>
+      <c r="P1" s="30"/>
+      <c r="Q1" s="30"/>
+      <c r="R1" s="30"/>
+      <c r="S1" s="30"/>
+      <c r="T1" s="30"/>
+      <c r="U1" s="30"/>
+      <c r="V1" s="30"/>
+      <c r="W1" s="30"/>
+      <c r="X1" s="30"/>
+      <c r="Y1" s="30"/>
+      <c r="Z1" s="30"/>
+      <c r="AA1" s="30"/>
+      <c r="AB1" s="30"/>
+      <c r="AC1" s="30"/>
+      <c r="AD1" s="30"/>
+      <c r="AE1" s="30"/>
     </row>
     <row r="2" spans="2:32" ht="24.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="B2" s="9" t="s">
         <v>1</v>
       </c>
-      <c r="C2" s="26">
+      <c r="C2" s="32">
         <v>43961</v>
       </c>
-      <c r="D2" s="26"/>
-      <c r="E2" s="26"/>
+      <c r="D2" s="32"/>
+      <c r="E2" s="32"/>
     </row>
     <row r="3" spans="2:32" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B3" s="14"/>
     </row>
     <row r="4" spans="2:32" ht="24.75" customHeight="1" x14ac:dyDescent="0.5">
       <c r="B4" s="13"/>
-      <c r="C4" s="27" t="s">
+      <c r="C4" s="33" t="s">
         <v>3</v>
       </c>
-      <c r="D4" s="27"/>
-      <c r="E4" s="27"/>
-      <c r="F4" s="27"/>
-      <c r="G4" s="27"/>
-      <c r="H4" s="27"/>
-      <c r="I4" s="27"/>
-      <c r="J4" s="25" t="s">
+      <c r="D4" s="33"/>
+      <c r="E4" s="33"/>
+      <c r="F4" s="33"/>
+      <c r="G4" s="33"/>
+      <c r="H4" s="33"/>
+      <c r="I4" s="33"/>
+      <c r="J4" s="31" t="s">
         <v>4</v>
       </c>
-      <c r="K4" s="25"/>
-      <c r="L4" s="25"/>
-      <c r="M4" s="25"/>
-      <c r="N4" s="25"/>
-      <c r="O4" s="25"/>
-      <c r="P4" s="25"/>
-      <c r="Q4" s="27" t="s">
+      <c r="K4" s="31"/>
+      <c r="L4" s="31"/>
+      <c r="M4" s="31"/>
+      <c r="N4" s="31"/>
+      <c r="O4" s="31"/>
+      <c r="P4" s="31"/>
+      <c r="Q4" s="33" t="s">
         <v>5</v>
       </c>
-      <c r="R4" s="27"/>
-      <c r="S4" s="27"/>
-      <c r="T4" s="27"/>
-      <c r="U4" s="27"/>
-      <c r="V4" s="27"/>
-      <c r="W4" s="27"/>
-      <c r="X4" s="25" t="s">
+      <c r="R4" s="33"/>
+      <c r="S4" s="33"/>
+      <c r="T4" s="33"/>
+      <c r="U4" s="33"/>
+      <c r="V4" s="33"/>
+      <c r="W4" s="33"/>
+      <c r="X4" s="31" t="s">
         <v>6</v>
       </c>
-      <c r="Y4" s="25"/>
-      <c r="Z4" s="25"/>
-      <c r="AA4" s="25"/>
-      <c r="AB4" s="25"/>
-      <c r="AC4" s="25"/>
-      <c r="AD4" s="25"/>
-      <c r="AE4" s="22" t="s">
+      <c r="Y4" s="31"/>
+      <c r="Z4" s="31"/>
+      <c r="AA4" s="31"/>
+      <c r="AB4" s="31"/>
+      <c r="AC4" s="31"/>
+      <c r="AD4" s="31"/>
+      <c r="AE4" s="28" t="s">
         <v>7</v>
       </c>
       <c r="AF4" t="s">
@@ -1349,7 +1377,7 @@
         <f t="shared" si="3"/>
         <v/>
       </c>
-      <c r="AE5" s="22"/>
+      <c r="AE5" s="28"/>
       <c r="AF5" t="s">
         <v>9</v>
       </c>
@@ -1468,7 +1496,7 @@
         <f t="shared" si="4"/>
         <v>六</v>
       </c>
-      <c r="AE6" s="22"/>
+      <c r="AE6" s="28"/>
     </row>
     <row r="7" spans="2:32" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="B7" s="21" t="s">
@@ -1586,104 +1614,104 @@
         <f t="shared" ref="AD7" si="8">AC7+1</f>
         <v>43988</v>
       </c>
-      <c r="AE7" s="23"/>
+      <c r="AE7" s="29"/>
     </row>
     <row r="8" spans="2:32" ht="30" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B8" s="11" t="s">
         <v>10</v>
       </c>
-      <c r="C8" s="29" t="s">
+      <c r="C8" s="23" t="s">
         <v>13</v>
       </c>
-      <c r="D8" s="29"/>
-      <c r="E8" s="29"/>
-      <c r="F8" s="29"/>
-      <c r="G8" s="28" t="s">
-        <v>14</v>
-      </c>
-      <c r="H8" s="29"/>
-      <c r="I8" s="29" t="s">
-        <v>17</v>
-      </c>
-      <c r="J8" s="29"/>
-      <c r="K8" s="29"/>
-      <c r="L8" s="28" t="s">
-        <v>24</v>
+      <c r="D8" s="23"/>
+      <c r="E8" s="23"/>
+      <c r="F8" s="23"/>
+      <c r="G8" s="22" t="s">
+        <v>35</v>
+      </c>
+      <c r="H8" s="23"/>
+      <c r="I8" s="23" t="s">
+        <v>16</v>
+      </c>
+      <c r="J8" s="23"/>
+      <c r="K8" s="23"/>
+      <c r="L8" s="22" t="s">
+        <v>32</v>
       </c>
       <c r="M8" s="5"/>
       <c r="N8" s="4"/>
       <c r="O8" s="5"/>
       <c r="P8" s="4"/>
-      <c r="Q8" s="28"/>
+      <c r="Q8" s="22"/>
       <c r="R8" s="4"/>
       <c r="S8" s="5"/>
       <c r="T8" s="4"/>
       <c r="U8" s="5"/>
       <c r="V8" s="4"/>
       <c r="W8" s="5"/>
-      <c r="X8" s="28" t="s">
-        <v>29</v>
+      <c r="X8" s="22" t="s">
+        <v>26</v>
       </c>
       <c r="Y8" s="5"/>
       <c r="Z8" s="4"/>
-      <c r="AA8" s="28" t="s">
-        <v>30</v>
+      <c r="AA8" s="22" t="s">
+        <v>27</v>
       </c>
       <c r="AB8" s="4"/>
       <c r="AC8" s="5"/>
       <c r="AD8" s="6"/>
-      <c r="AE8" s="33" t="s">
-        <v>32</v>
+      <c r="AE8" s="27" t="s">
+        <v>29</v>
       </c>
     </row>
     <row r="9" spans="2:32" ht="30" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B9" s="11" t="s">
         <v>11</v>
       </c>
-      <c r="C9" s="31" t="s">
-        <v>15</v>
-      </c>
-      <c r="D9" s="31"/>
-      <c r="E9" s="32"/>
-      <c r="F9" s="31"/>
-      <c r="G9" s="28"/>
-      <c r="H9" s="31"/>
-      <c r="I9" s="31" t="s">
+      <c r="C9" s="25" t="s">
+        <v>14</v>
+      </c>
+      <c r="D9" s="25"/>
+      <c r="E9" s="26"/>
+      <c r="F9" s="25"/>
+      <c r="G9" s="22"/>
+      <c r="H9" s="25"/>
+      <c r="I9" s="25" t="s">
+        <v>17</v>
+      </c>
+      <c r="J9" s="25"/>
+      <c r="K9" s="25"/>
+      <c r="L9" s="22" t="s">
+        <v>33</v>
+      </c>
+      <c r="M9" s="25"/>
+      <c r="N9" s="25" t="s">
         <v>19</v>
       </c>
-      <c r="J9" s="31"/>
-      <c r="K9" s="31"/>
-      <c r="L9" s="28" t="s">
-        <v>18</v>
-      </c>
-      <c r="M9" s="31"/>
-      <c r="N9" s="31" t="s">
+      <c r="O9" s="25"/>
+      <c r="P9" s="25"/>
+      <c r="Q9" s="22" t="s">
         <v>22</v>
       </c>
-      <c r="O9" s="31"/>
-      <c r="P9" s="31"/>
-      <c r="Q9" s="28" t="s">
-        <v>25</v>
-      </c>
-      <c r="R9" s="31"/>
-      <c r="S9" s="31"/>
-      <c r="T9" s="31" t="s">
-        <v>27</v>
-      </c>
-      <c r="U9" s="31"/>
-      <c r="V9" s="31"/>
-      <c r="W9" s="31"/>
-      <c r="X9" s="28"/>
-      <c r="Y9" s="31" t="s">
-        <v>27</v>
-      </c>
-      <c r="Z9" s="31"/>
-      <c r="AA9" s="28"/>
-      <c r="AB9" s="31" t="s">
-        <v>31</v>
-      </c>
-      <c r="AC9" s="31"/>
-      <c r="AD9" s="31"/>
+      <c r="R9" s="25"/>
+      <c r="S9" s="25"/>
+      <c r="T9" s="25" t="s">
+        <v>24</v>
+      </c>
+      <c r="U9" s="25"/>
+      <c r="V9" s="25"/>
+      <c r="W9" s="25"/>
+      <c r="X9" s="22"/>
+      <c r="Y9" s="25" t="s">
+        <v>24</v>
+      </c>
+      <c r="Z9" s="25"/>
+      <c r="AA9" s="22"/>
+      <c r="AB9" s="25" t="s">
+        <v>28</v>
+      </c>
+      <c r="AC9" s="25"/>
+      <c r="AD9" s="25"/>
       <c r="AE9" s="12" t="s">
         <v>8</v>
       </c>
@@ -1692,50 +1720,50 @@
       <c r="B10" s="11" t="s">
         <v>12</v>
       </c>
-      <c r="C10" s="30" t="s">
-        <v>16</v>
-      </c>
-      <c r="D10" s="30"/>
-      <c r="E10" s="30"/>
-      <c r="F10" s="30"/>
-      <c r="G10" s="28"/>
-      <c r="H10" s="30"/>
-      <c r="I10" s="30" t="s">
+      <c r="C10" s="24" t="s">
+        <v>15</v>
+      </c>
+      <c r="D10" s="24"/>
+      <c r="E10" s="24"/>
+      <c r="F10" s="24"/>
+      <c r="G10" s="22"/>
+      <c r="H10" s="24"/>
+      <c r="I10" s="24" t="s">
+        <v>18</v>
+      </c>
+      <c r="J10" s="24"/>
+      <c r="K10" s="24"/>
+      <c r="L10" s="22" t="s">
+        <v>34</v>
+      </c>
+      <c r="M10" s="24"/>
+      <c r="N10" s="24" t="s">
         <v>20</v>
       </c>
-      <c r="J10" s="30"/>
-      <c r="K10" s="30"/>
-      <c r="L10" s="28" t="s">
-        <v>21</v>
-      </c>
-      <c r="M10" s="30"/>
-      <c r="N10" s="30" t="s">
+      <c r="O10" s="24"/>
+      <c r="P10" s="24"/>
+      <c r="Q10" s="22" t="s">
         <v>23</v>
       </c>
-      <c r="O10" s="30"/>
-      <c r="P10" s="30"/>
-      <c r="Q10" s="28" t="s">
-        <v>26</v>
-      </c>
-      <c r="R10" s="30"/>
-      <c r="S10" s="30"/>
-      <c r="T10" s="30" t="s">
+      <c r="R10" s="24"/>
+      <c r="S10" s="24"/>
+      <c r="T10" s="24" t="s">
+        <v>25</v>
+      </c>
+      <c r="U10" s="24"/>
+      <c r="V10" s="24"/>
+      <c r="W10" s="24"/>
+      <c r="X10" s="22"/>
+      <c r="Y10" s="24" t="s">
+        <v>25</v>
+      </c>
+      <c r="Z10" s="24"/>
+      <c r="AA10" s="22"/>
+      <c r="AB10" s="25" t="s">
         <v>28</v>
       </c>
-      <c r="U10" s="30"/>
-      <c r="V10" s="30"/>
-      <c r="W10" s="30"/>
-      <c r="X10" s="28"/>
-      <c r="Y10" s="30" t="s">
-        <v>28</v>
-      </c>
-      <c r="Z10" s="30"/>
-      <c r="AA10" s="28"/>
-      <c r="AB10" s="31" t="s">
-        <v>31</v>
-      </c>
-      <c r="AC10" s="30"/>
-      <c r="AD10" s="30"/>
+      <c r="AC10" s="24"/>
+      <c r="AD10" s="24"/>
       <c r="AE10" s="12" t="s">
         <v>8</v>
       </c>
@@ -1805,7 +1833,9 @@
       <c r="AE12" s="12"/>
     </row>
     <row r="13" spans="2:32" ht="30" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B13" s="10"/>
+      <c r="B13" s="11" t="s">
+        <v>30</v>
+      </c>
       <c r="C13" s="5"/>
       <c r="D13" s="6"/>
       <c r="E13" s="5"/>
@@ -1837,103 +1867,149 @@
       <c r="AE13" s="12"/>
     </row>
     <row r="14" spans="2:32" ht="30" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B14" s="10"/>
-      <c r="C14" s="5"/>
-      <c r="D14" s="6"/>
-      <c r="E14" s="5"/>
-      <c r="F14" s="6"/>
-      <c r="G14" s="5"/>
-      <c r="H14" s="6"/>
-      <c r="I14" s="5"/>
-      <c r="J14" s="6"/>
-      <c r="K14" s="5"/>
-      <c r="L14" s="6"/>
-      <c r="M14" s="5"/>
-      <c r="N14" s="6"/>
-      <c r="O14" s="5"/>
-      <c r="P14" s="6"/>
-      <c r="Q14" s="5"/>
-      <c r="R14" s="6"/>
-      <c r="S14" s="5"/>
-      <c r="T14" s="6"/>
-      <c r="U14" s="5"/>
-      <c r="V14" s="6"/>
-      <c r="W14" s="5"/>
-      <c r="X14" s="6"/>
+      <c r="B14" s="11" t="s">
+        <v>10</v>
+      </c>
+      <c r="C14" s="23" t="s">
+        <v>13</v>
+      </c>
+      <c r="D14" s="23"/>
+      <c r="E14" s="23"/>
+      <c r="F14" s="23"/>
+      <c r="G14" s="22" t="s">
+        <v>34</v>
+      </c>
+      <c r="H14" s="23"/>
+      <c r="I14" s="23" t="s">
+        <v>16</v>
+      </c>
+      <c r="J14" s="23"/>
+      <c r="K14" s="23"/>
+      <c r="L14" s="22" t="s">
+        <v>21</v>
+      </c>
+      <c r="M14" s="23" t="s">
+        <v>31</v>
+      </c>
+      <c r="N14" s="23"/>
+      <c r="O14" s="23"/>
+      <c r="P14" s="22" t="s">
+        <v>34</v>
+      </c>
+      <c r="Q14" s="25"/>
+      <c r="R14" s="22"/>
+      <c r="S14" s="25" t="s">
+        <v>24</v>
+      </c>
+      <c r="T14" s="25"/>
+      <c r="U14" s="25"/>
+      <c r="V14" s="25"/>
+      <c r="W14" s="25"/>
+      <c r="X14" s="22" t="s">
+        <v>26</v>
+      </c>
       <c r="Y14" s="5"/>
       <c r="Z14" s="6"/>
       <c r="AA14" s="5"/>
       <c r="AB14" s="6"/>
       <c r="AC14" s="5"/>
       <c r="AD14" s="6"/>
-      <c r="AE14" s="12"/>
+      <c r="AE14" s="27" t="s">
+        <v>39</v>
+      </c>
     </row>
     <row r="15" spans="2:32" ht="30" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B15" s="10"/>
-      <c r="C15" s="5"/>
-      <c r="D15" s="6"/>
-      <c r="E15" s="5"/>
-      <c r="F15" s="6"/>
-      <c r="G15" s="5"/>
-      <c r="H15" s="6"/>
-      <c r="I15" s="5"/>
-      <c r="J15" s="6"/>
-      <c r="K15" s="5"/>
-      <c r="L15" s="6"/>
-      <c r="M15" s="5"/>
-      <c r="N15" s="6"/>
-      <c r="O15" s="5"/>
-      <c r="P15" s="6"/>
-      <c r="Q15" s="5"/>
-      <c r="R15" s="6"/>
-      <c r="S15" s="5"/>
-      <c r="T15" s="6"/>
-      <c r="U15" s="5"/>
-      <c r="V15" s="6"/>
-      <c r="W15" s="5"/>
-      <c r="X15" s="6"/>
+      <c r="B15" s="11" t="s">
+        <v>11</v>
+      </c>
+      <c r="C15" s="25" t="s">
+        <v>14</v>
+      </c>
+      <c r="D15" s="25"/>
+      <c r="E15" s="26"/>
+      <c r="F15" s="25"/>
+      <c r="G15" s="22"/>
+      <c r="H15" s="25"/>
+      <c r="I15" s="25" t="s">
+        <v>17</v>
+      </c>
+      <c r="J15" s="25"/>
+      <c r="K15" s="25"/>
+      <c r="L15" s="22" t="s">
+        <v>34</v>
+      </c>
+      <c r="M15" s="25" t="s">
+        <v>24</v>
+      </c>
+      <c r="N15" s="25"/>
+      <c r="O15" s="25"/>
+      <c r="P15" s="25"/>
+      <c r="Q15" s="25"/>
+      <c r="R15" s="22" t="s">
+        <v>37</v>
+      </c>
+      <c r="S15" s="25"/>
+      <c r="T15" s="25"/>
+      <c r="U15" s="25"/>
+      <c r="V15" s="25"/>
+      <c r="W15" s="25"/>
+      <c r="X15" s="22"/>
       <c r="Y15" s="5"/>
       <c r="Z15" s="6"/>
       <c r="AA15" s="5"/>
       <c r="AB15" s="6"/>
       <c r="AC15" s="5"/>
       <c r="AD15" s="6"/>
-      <c r="AE15" s="12"/>
+      <c r="AE15" s="27" t="s">
+        <v>38</v>
+      </c>
     </row>
     <row r="16" spans="2:32" ht="30" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B16" s="10"/>
-      <c r="C16" s="5"/>
-      <c r="D16" s="6"/>
-      <c r="E16" s="5"/>
-      <c r="F16" s="6"/>
-      <c r="G16" s="5"/>
-      <c r="H16" s="6"/>
-      <c r="I16" s="5"/>
-      <c r="J16" s="6"/>
-      <c r="K16" s="5"/>
-      <c r="L16" s="6"/>
-      <c r="M16" s="5"/>
-      <c r="N16" s="6"/>
-      <c r="O16" s="5"/>
-      <c r="P16" s="6"/>
-      <c r="Q16" s="5"/>
-      <c r="R16" s="6"/>
-      <c r="S16" s="5"/>
-      <c r="T16" s="6"/>
-      <c r="U16" s="5"/>
-      <c r="V16" s="6"/>
-      <c r="W16" s="5"/>
-      <c r="X16" s="6"/>
+      <c r="B16" s="11" t="s">
+        <v>12</v>
+      </c>
+      <c r="C16" s="24" t="s">
+        <v>15</v>
+      </c>
+      <c r="D16" s="24"/>
+      <c r="E16" s="24"/>
+      <c r="F16" s="24"/>
+      <c r="G16" s="22"/>
+      <c r="H16" s="24"/>
+      <c r="I16" s="24" t="s">
+        <v>18</v>
+      </c>
+      <c r="J16" s="24"/>
+      <c r="K16" s="24"/>
+      <c r="L16" s="22" t="s">
+        <v>36</v>
+      </c>
+      <c r="M16" s="24" t="s">
+        <v>25</v>
+      </c>
+      <c r="N16" s="24"/>
+      <c r="O16" s="24"/>
+      <c r="P16" s="24"/>
+      <c r="Q16" s="24"/>
+      <c r="R16" s="24"/>
+      <c r="S16" s="24"/>
+      <c r="T16" s="24"/>
+      <c r="U16" s="24"/>
+      <c r="V16" s="24"/>
+      <c r="W16" s="24"/>
+      <c r="X16" s="22"/>
       <c r="Y16" s="5"/>
       <c r="Z16" s="6"/>
       <c r="AA16" s="5"/>
       <c r="AB16" s="6"/>
       <c r="AC16" s="5"/>
       <c r="AD16" s="6"/>
-      <c r="AE16" s="12"/>
+      <c r="AE16" s="27" t="s">
+        <v>38</v>
+      </c>
     </row>
     <row r="17" spans="2:31" ht="30" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B17" s="10"/>
+      <c r="B17" s="11"/>
       <c r="C17" s="5"/>
       <c r="D17" s="6"/>
       <c r="E17" s="5"/>
@@ -2281,7 +2357,7 @@
   </dataValidations>
   <printOptions horizontalCentered="1"/>
   <pageMargins left="0.23622047244094491" right="0.23622047244094491" top="0.74803149606299213" bottom="0.74803149606299213" header="0.31496062992125984" footer="0.31496062992125984"/>
-  <pageSetup paperSize="9" fitToHeight="0" orientation="landscape" r:id="rId1"/>
+  <pageSetup paperSize="9" scale="64" fitToHeight="0" orientation="landscape" r:id="rId1"/>
   <headerFooter differentFirst="1">
     <oddFooter>Page &amp;P of &amp;N</oddFooter>
   </headerFooter>
